--- a/Testing/Testing.xlsx
+++ b/Testing/Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cogger Main" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t xml:space="preserve">Testing</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Pass</t>
   </si>
   <si>
+    <t xml:space="preserve">Modified Since Last Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Displays Instructions</t>
   </si>
   <si>
@@ -87,10 +90,22 @@
     <t xml:space="preserve">Key invalid “–“ At end – Single Wheel</t>
   </si>
   <si>
+    <t xml:space="preserve">Key invalid “–“ At front – Single Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key invalid “-” At end – Three Wheels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key invalid “-” At front – Three Wheels</t>
   </si>
   <si>
     <t xml:space="preserve">Key invalid “+“ At end – Single Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key invalid “+“ At front – Single Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key invalid “+” At end – Three Wheels</t>
   </si>
   <si>
     <t xml:space="preserve">Key invalid “+” At front – Three Wheels</t>
@@ -151,8 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -233,12 +249,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,19 +283,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,33 +318,48 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -336,21 +376,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -367,125 +409,149 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -502,21 +568,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -533,25 +600,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -568,20 +638,23 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -598,15 +671,18 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -623,12 +699,28 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
